--- a/Pedro-ex2.xlsx
+++ b/Pedro-ex2.xlsx
@@ -28,7 +28,7 @@
     <t>Teste 2 Upload</t>
   </si>
   <si>
-    <t>Teste 3 Donwload</t>
+    <t>Teste 3 Download</t>
   </si>
   <si>
     <t>Teste 3 Upload</t>
@@ -307,6 +307,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="13.88"/>
+    <col customWidth="1" min="2" max="2" width="14.0"/>
+    <col customWidth="1" min="3" max="3" width="14.5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
